--- a/자료/burn down chart.xlsx
+++ b/자료/burn down chart.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\영우\Desktop\과제\18년2학기\기창공\기말발표\1205\자료\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E091D54D-AD6E-4846-A454-FCDA1468E181}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="실제작업속도">Sheet1!#REF!</definedName>
     <definedName name="예상작업">Sheet1!$Q:$Q</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -313,7 +307,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -357,6 +351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -365,26 +360,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -511,7 +486,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D71-4FC4-9B95-B07CF3735ED7}"/>
             </c:ext>
@@ -627,10 +602,13 @@
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D71-4FC4-9B95-B07CF3735ED7}"/>
             </c:ext>
@@ -644,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459473560"/>
-        <c:axId val="459471920"/>
+        <c:axId val="88029440"/>
+        <c:axId val="88043520"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="459473560"/>
+        <c:axId val="88029440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,14 +669,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459471920"/>
+        <c:crossAx val="88043520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459471920"/>
+        <c:axId val="88043520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +727,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459473560"/>
+        <c:crossAx val="88029440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -763,6 +741,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -794,14 +773,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1417,7 +1396,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBED5A3-64B1-4B63-B7E8-78793533C8E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FBED5A3-64B1-4B63-B7E8-78793533C8E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,26 +1493,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,23 +1528,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,11 +1703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1856,9 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
@@ -1931,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1944,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
